--- a/static/uploads/TA/Basic_Actuarial_Science/Life_Reserving/HW3_Q1_Answer.xlsx
+++ b/static/uploads/TA/Basic_Actuarial_Science/Life_Reserving/HW3_Q1_Answer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2.社会工作与助教\7. 2023-2024春季学期精算概论\Homework\Hw3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\academicblog\static\uploads\TA\Basic_Actuarial_Science\Life_Reserving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B382F39-4E6E-4902-8892-B8C7B86DAAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF778EF-BC0A-4AC2-8368-063C94A44E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,42 +31,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>庄源</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{C8CD040A-76E4-482A-BE19-5BF77FD9E98A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>庄源:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-改变右边数字，即可更改缴费期限，实现三年缴和趸缴的转化。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
@@ -135,7 +99,7 @@
     <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="165" formatCode="0.000000_);[Red]\(0.000000\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,21 +126,6 @@
       <color theme="1"/>
       <name val="Times New Roman "/>
       <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -242,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -261,15 +210,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -351,13 +297,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>205739</xdr:colOff>
+          <xdr:colOff>205740</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>509876</xdr:colOff>
+          <xdr:colOff>510540</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>213360</xdr:rowOff>
         </xdr:to>
@@ -403,14 +349,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>60960</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="701040" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1032" name="Object 8" hidden="1">
@@ -419,7 +370,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA00482C-A6A0-4F03-A81E-BE1994450D20}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -447,20 +398,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="259080" cy="175260"/>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>487680</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Object 9" hidden="1">
@@ -469,7 +425,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F69121-6814-4EB3-980F-BF30E05855B2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -497,7 +453,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -770,7 +726,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -818,35 +774,35 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -862,11 +818,11 @@
         <v>0.01</v>
       </c>
       <c r="D8" s="2">
-        <f>IF(A8&lt;A$8+Insu_dur,SA,0)</f>
+        <f t="shared" ref="D8:D13" si="0">IF(A8&lt;A$8+Insu_dur,SA,0)</f>
         <v>10000</v>
       </c>
       <c r="E8" s="2">
-        <f>IF(A8=A$8+Insu_dur-1,SA,0)</f>
+        <f t="shared" ref="E8:E13" si="1">IF(A8=A$8+Insu_dur-1,SA,0)</f>
         <v>0</v>
       </c>
       <c r="F8" s="3">
@@ -878,14 +834,14 @@
         <v>0.01</v>
       </c>
       <c r="H8" s="2">
-        <f>(1+i)^(-A8+30)</f>
+        <f t="shared" ref="H8:H13" si="2">(1+i)^(-A8+30)</f>
         <v>1</v>
       </c>
       <c r="I8" s="5">
         <f>SUMPRODUCT(D8:D12,G8:G12,H9:H13)+SUMPRODUCT(E8:E12,F9:F13,H9:H13)</f>
         <v>9257.1166769472184</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <f ca="1">ROUND(I8/SUMPRODUCT(F8:OFFSET(F8,Pay_dur-1,0),H8:OFFSET(H8,Pay_dur-1,0)),2)</f>
         <v>4697.6400000000003</v>
       </c>
@@ -898,19 +854,19 @@
         <v>99</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ref="C9:C11" si="0">(B9-B10)/B9</f>
+        <f t="shared" ref="C9:C11" si="3">(B9-B10)/B9</f>
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="D9" s="2">
-        <f>IF(A9&lt;A$8+Insu_dur,SA,0)</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="E9" s="2">
-        <f>IF(A9=A$8+Insu_dur-1,SA,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" ref="F9:F12" si="1">F8*(1-C8)</f>
+        <f t="shared" ref="F9:F12" si="4">F8*(1-C8)</f>
         <v>0.99</v>
       </c>
       <c r="G9" s="7">
@@ -918,7 +874,7 @@
         <v>0.02</v>
       </c>
       <c r="H9" s="2">
-        <f>(1+i)^(-A9+30)</f>
+        <f t="shared" si="2"/>
         <v>0.98039215686274506</v>
       </c>
     </row>
@@ -930,19 +886,19 @@
         <v>97</v>
       </c>
       <c r="C10" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0927835051546393E-2</v>
+      </c>
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>3.0927835051546393E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <f>IF(A10&lt;A$8+Insu_dur,SA,0)</f>
         <v>10000</v>
       </c>
       <c r="E10" s="2">
-        <f>IF(A10=A$8+Insu_dur-1,SA,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.97</v>
       </c>
       <c r="G10" s="7">
@@ -950,7 +906,7 @@
         <v>0.03</v>
       </c>
       <c r="H10" s="2">
-        <f>(1+i)^(-A10+30)</f>
+        <f t="shared" si="2"/>
         <v>0.96116878123798544</v>
       </c>
     </row>
@@ -962,19 +918,19 @@
         <v>94</v>
       </c>
       <c r="C11" s="2">
+        <f t="shared" si="3"/>
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>4.2553191489361701E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <f>IF(A11&lt;A$8+Insu_dur,SA,0)</f>
         <v>10000</v>
       </c>
       <c r="E11" s="2">
-        <f>IF(A11=A$8+Insu_dur-1,SA,0)</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.94</v>
       </c>
       <c r="G11" s="7">
@@ -982,7 +938,7 @@
         <v>3.9999999999999994E-2</v>
       </c>
       <c r="H11" s="2">
-        <f>(1+i)^(-A11+30)</f>
+        <f t="shared" si="2"/>
         <v>0.94232233454704462</v>
       </c>
     </row>
@@ -995,20 +951,20 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <f>IF(A12&lt;A$8+Insu_dur,SA,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <f>IF(A12=A$8+Insu_dur-1,SA,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="2">
-        <f>(1+i)^(-A12+30)</f>
+        <f t="shared" si="2"/>
         <v>0.9238454260265142</v>
       </c>
     </row>
@@ -1019,47 +975,47 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <f>IF(A13&lt;A$8+Insu_dur,SA,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <f>IF(A13=A$8+Insu_dur-1,SA,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
       <c r="H13" s="2">
-        <f>(1+i)^(-A13+30)</f>
+        <f t="shared" si="2"/>
         <v>0.90573080982991594</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.4">
-      <c r="A16" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1075,11 +1031,11 @@
         <v>0.01</v>
       </c>
       <c r="D17" s="2">
-        <f>IF(A17&lt;A$8+Insu_dur,SA,0)</f>
+        <f t="shared" ref="D17:D22" si="5">IF(A17&lt;A$8+Insu_dur,SA,0)</f>
         <v>10000</v>
       </c>
       <c r="E17" s="2">
-        <f>IF(A17=A$8+Insu_dur-1,SA,0)</f>
+        <f t="shared" ref="E17:E22" si="6">IF(A17=A$8+Insu_dur-1,SA,0)</f>
         <v>0</v>
       </c>
       <c r="F17" s="3">
@@ -1090,11 +1046,11 @@
         <f>C17</f>
         <v>0.01</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="2">
         <f>IF(A17&gt;30+Pay_dur-1,0,1)</f>
         <v>1</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <f ca="1">ROUND(((IF(A17=30,0,I16)*B17+Net_Premium*B17*H17)*(1+i)-(B17-B18)*SA)/B18,2)</f>
         <v>4738.9799999999996</v>
       </c>
@@ -1107,30 +1063,30 @@
         <v>99</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:C20" si="2">(B18-B19)/B18</f>
+        <f t="shared" ref="C18:C20" si="7">(B18-B19)/B18</f>
         <v>2.0202020202020204E-2</v>
       </c>
       <c r="D18" s="2">
-        <f>IF(A18&lt;A$8+Insu_dur,SA,0)</f>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="E18" s="2">
-        <f>IF(A18=A$8+Insu_dur-1,SA,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" ref="F18:F22" si="3">F17*(1-C17)</f>
+        <f t="shared" ref="F18:F21" si="8">F17*(1-C17)</f>
         <v>0.99</v>
       </c>
       <c r="G18" s="7">
         <f>F18*C18</f>
         <v>0.02</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="2">
         <f>IF(A18&gt;30+Pay_dur-1,0,1)</f>
         <v>1</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <f ca="1">ROUND(((IF(A18=30,0,I17)*B18+Net_Premium*B18*H18)*(1+i)-(B18-B19)*SA)/B19,2)</f>
         <v>9617.6299999999992</v>
       </c>
@@ -1143,30 +1099,30 @@
         <v>97</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.0927835051546393E-2</v>
       </c>
       <c r="D19" s="2">
-        <f>IF(A19&lt;A$8+Insu_dur,SA,0)</f>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="E19" s="2">
-        <f>IF(A19=A$8+Insu_dur-1,SA,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.97</v>
       </c>
       <c r="G19" s="7">
         <f>F19*C19</f>
         <v>0.03</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="2">
         <f>IF(A19&gt;30+Pay_dur-1,0,1)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <f ca="1">ROUND(((IF(A19=30,0,I18)*B19+Net_Premium*B19*H19)*(1+i)-(B19-B20)*SA)/B20,2)</f>
         <v>9803.92</v>
       </c>
@@ -1179,30 +1135,30 @@
         <v>94</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4.2553191489361701E-2</v>
       </c>
       <c r="D20" s="2">
-        <f>IF(A20&lt;A$8+Insu_dur,SA,0)</f>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="E20" s="2">
-        <f>IF(A20=A$8+Insu_dur-1,SA,0)</f>
+        <f t="shared" si="6"/>
         <v>10000</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.94</v>
       </c>
       <c r="G20" s="7">
         <f>F20*C20</f>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="2">
         <f>IF(A20&gt;30+Pay_dur-1,0,1)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <f ca="1">ROUND(((IF(A20=30,0,I19)*B20+Net_Premium*B20*H20)*(1+i)-(B20-B21)*SA)/B21,2)</f>
         <v>10000</v>
       </c>
@@ -1216,15 +1172,15 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
-        <f>IF(A21&lt;A$8+Insu_dur,SA,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <f>IF(A21=A$8+Insu_dur-1,SA,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.9</v>
       </c>
       <c r="G21" s="7"/>
@@ -1238,11 +1194,11 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
-        <f>IF(A22&lt;A$8+Insu_dur,SA,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <f>IF(A22=A$8+Insu_dur-1,SA,0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F22" s="6"/>
